--- a/195/digitizedData.xlsx
+++ b/195/digitizedData.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\derrick\Desktop\repos\2021 Winter\195\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC707BF-A007-4F58-A6C8-4A0A0AFD9116}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A64E0B-8108-4E62-A521-8DE7D1DA70B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="18456" windowHeight="11784" activeTab="2" xr2:uid="{BEBEEE7F-4B70-497A-8360-C12D0F9BB666}"/>
+    <workbookView xWindow="16572" yWindow="1680" windowWidth="15792" windowHeight="11640" activeTab="3" xr2:uid="{BEBEEE7F-4B70-497A-8360-C12D0F9BB666}"/>
   </bookViews>
   <sheets>
     <sheet name="NACA4415 alpha vs Cl" sheetId="1" r:id="rId1"/>
     <sheet name="Propeller Geometry" sheetId="2" r:id="rId2"/>
     <sheet name="NACA4415 cl vs cd" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>alpha</t>
   </si>
@@ -58,12 +59,21 @@
   <si>
     <t>cl</t>
   </si>
+  <si>
+    <t>ALPHA</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +101,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -137,6 +153,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1110,6 +1127,2398 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.0937445319335086E-2"/>
+          <c:y val="0.1902314814814815"/>
+          <c:w val="0.90972922134733158"/>
+          <c:h val="0.77736111111111106"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.26174278215223096"/>
+                  <c:y val="-0.18367526975794693"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$139</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="138"/>
+                <c:pt idx="0">
+                  <c:v>-15.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-15.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-14.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-14.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-14.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-13.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-13.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-13.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-12.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-12.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-12.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-11.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-11.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-11.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-10.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-10.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-10.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-9.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-9.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-9.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-8.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-8.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-8.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-7.75</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-7.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-7.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-6.75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-6.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-6.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-5.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-5.25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-4.75</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-3.75</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-3.25</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2.75</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2.25</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.75</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.25</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.75</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>12.25</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>13.75</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>14.25</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>14.75</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>15.25</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>15.75</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>16.25</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>16.75</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>17.25</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>17.75</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>18.25</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>18.75</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>19.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$139</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="138"/>
+                <c:pt idx="0">
+                  <c:v>-0.72230000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.76080000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.78280000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.80800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.83099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.85699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.874</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.89370000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.91590000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.9234</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.91059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.89870000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.88400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.86009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.84440000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.82310000000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.79510000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.77390000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.75009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.72089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.69120000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.67049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.64429999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.61250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.58199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.54749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.52729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.49830000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.46460000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.42659999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.38990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.37040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.33750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.30130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.27650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.2465</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.2099</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.18890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.15690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.13139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.10349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-7.6799999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-5.0900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.46E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.9999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.1799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.5300000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.14910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.17249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.19620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.22009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.2427</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.26629999999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.28899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.31169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.3342</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.35549999999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.37630000000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.39529999999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.41270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.42970000000000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.44679999999999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.46689999999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.53759999999999997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.61550000000000005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.65680000000000005</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.69359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.73429999999999995</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.77690000000000003</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.82469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.84870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.86629999999999996</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.88380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.90129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.91820000000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.93530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.95250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.97040000000000004</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.98829999999999996</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.0048999999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.0222</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.0363</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.0525</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.0667</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.0834999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.099</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.1161000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.1317999999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.1489</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.1639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.1818</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.1969000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.2128000000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.2287999999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.2431000000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.2562</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.2687999999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.2807999999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.2927</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.3048999999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.3167</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.3281000000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.3381000000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.3593</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.3691</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.3789</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.3888</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.3969</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.4066000000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.4156</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.4218</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.4319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.4370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.4457</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.4517</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.4561999999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.4622999999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.4645999999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.4688000000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.4697</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.4688000000000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.4684999999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.4636</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.4617</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.4549000000000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.4537</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.4474</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.4399</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.4371</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.4315</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.4234</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.4133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.4111</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.4072</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.4011</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.3935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F0A5-4FA1-8BB6-6A3CE8BBAD97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1219175903"/>
+        <c:axId val="1219177567"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1219175903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1219177567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1219177567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1219175903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.19109667541557304"/>
+                  <c:y val="-0.36424103237095362"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$139</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="138"/>
+                <c:pt idx="0">
+                  <c:v>-0.72230000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.76080000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.78280000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.80800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.83099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.85699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.874</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.89370000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.91590000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.9234</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.91059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.89870000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.88400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.86009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.84440000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.82310000000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.79510000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.77390000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.75009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.72089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.69120000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.67049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.64429999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.61250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.58199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.54749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.52729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.49830000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.46460000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.42659999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.38990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.37040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.33750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.30130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.27650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.2465</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.2099</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.18890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.15690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.13139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.10349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-7.6799999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-5.0900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.46E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.9999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.1799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.5300000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.14910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.17249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.19620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.22009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.2427</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.26629999999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.28899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.31169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.3342</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.35549999999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.37630000000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.39529999999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.41270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.42970000000000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.44679999999999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.46689999999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.53759999999999997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.61550000000000005</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.65680000000000005</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.69359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.73429999999999995</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.77690000000000003</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.82469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.84870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.86629999999999996</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.88380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.90129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.91820000000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.93530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.95250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.97040000000000004</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.98829999999999996</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.0048999999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.0222</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.0363</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.0525</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.0667</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.0834999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.099</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.1161000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.1317999999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.1489</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.1639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.1818</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.1969000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.2128000000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.2287999999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.2431000000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.2562</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.2687999999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.2807999999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.2927</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.3048999999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.3167</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.3281000000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.3381000000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.3593</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.3691</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.3789</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.3888</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.3969</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.4066000000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.4156</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.4218</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.4319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.4370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.4457</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.4517</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.4561999999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.4622999999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.4645999999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.4688000000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.4697</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.4688000000000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.4684999999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.4636</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.4617</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.4549000000000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.4537</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.4474</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.4399</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.4371</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.4315</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.4234</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.4133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.4111</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.4072</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.4011</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.3935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$139</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="138"/>
+                <c:pt idx="0">
+                  <c:v>8.14E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6500000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.45E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8800000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4699999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1099999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5799999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.9100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.76E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.01E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.77E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.6299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.49E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.44E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.38E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.3299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.29E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.24E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.21E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.18E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.11E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.06E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.04E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.03E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.01E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.7999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.7000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.5999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.4999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.4000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.2999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.8999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8.8999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.8000000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.6999999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.3999999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.2000000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.0999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.0999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.3999999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.8000000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.2999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.4000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.5999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.7000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.7999999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.01E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.0200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.04E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.0699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.09E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.12E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.14E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.1599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.18E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.23E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.26E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.29E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.32E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.3599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.44E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.5599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.6199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.6799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.7500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.8200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.9099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.0799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.1700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.2700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.3699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.4799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.5899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.7099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.8500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.9600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.1199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.4099999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.5900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.7600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.9699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.1700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>4.6600000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4.9200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>5.2299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5.5199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5.8700000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6.1699999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6.5299999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>7.2400000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>7.6100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>8.0100000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>8.4500000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>8.7900000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>9.1499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>9.5500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>9.9699999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0945-4FA3-BDAD-8D17011BC1C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1078919119"/>
+        <c:axId val="1078919535"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1078919119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1078919535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1078919535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1078919119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1190,6 +3599,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1707,6 +4196,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2296,6 +5817,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E1B57E-2504-43C6-B75D-73B170A3D9AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AA4918F-59E7-4963-9FB6-540A3EDF4286}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3089,7 +6687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF6CEE3-3127-4F54-A3A1-CA2ED08C4456}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B23"/>
     </sheetView>
   </sheetViews>
@@ -3290,4 +6888,1550 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3339141-64CF-4192-8596-1B30C08BF21E}">
+  <dimension ref="A1:C139"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="C1" activeCellId="1" sqref="B1:B1048576 C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>-15.5</v>
+      </c>
+      <c r="B2">
+        <v>-0.72230000000000005</v>
+      </c>
+      <c r="C2">
+        <v>8.14E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>-15.25</v>
+      </c>
+      <c r="B3">
+        <v>-0.76080000000000003</v>
+      </c>
+      <c r="C3">
+        <v>7.2599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>-15</v>
+      </c>
+      <c r="B4">
+        <v>-0.78280000000000005</v>
+      </c>
+      <c r="C4">
+        <v>6.6500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>-14.75</v>
+      </c>
+      <c r="B5">
+        <v>-0.80800000000000005</v>
+      </c>
+      <c r="C5">
+        <v>6.0299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>-14.5</v>
+      </c>
+      <c r="B6">
+        <v>-0.83099999999999996</v>
+      </c>
+      <c r="C6">
+        <v>5.45E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>-14.25</v>
+      </c>
+      <c r="B7">
+        <v>-0.85699999999999998</v>
+      </c>
+      <c r="C7">
+        <v>4.8800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>-14</v>
+      </c>
+      <c r="B8">
+        <v>-0.874</v>
+      </c>
+      <c r="C8">
+        <v>4.4699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>-13.75</v>
+      </c>
+      <c r="B9">
+        <v>-0.89370000000000005</v>
+      </c>
+      <c r="C9">
+        <v>4.1099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>-13.5</v>
+      </c>
+      <c r="B10">
+        <v>-0.91590000000000005</v>
+      </c>
+      <c r="C10">
+        <v>3.8300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>-13.25</v>
+      </c>
+      <c r="B11">
+        <v>-0.9234</v>
+      </c>
+      <c r="C11">
+        <v>3.5799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>-13</v>
+      </c>
+      <c r="B12">
+        <v>-0.91059999999999997</v>
+      </c>
+      <c r="C12">
+        <v>3.3700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>-12.75</v>
+      </c>
+      <c r="B13">
+        <v>-0.89870000000000005</v>
+      </c>
+      <c r="C13">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>-12.5</v>
+      </c>
+      <c r="B14">
+        <v>-0.88400000000000001</v>
+      </c>
+      <c r="C14">
+        <v>3.0499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>-12.25</v>
+      </c>
+      <c r="B15">
+        <v>-0.86009999999999998</v>
+      </c>
+      <c r="C15">
+        <v>2.9100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>-12</v>
+      </c>
+      <c r="B16">
+        <v>-0.84440000000000004</v>
+      </c>
+      <c r="C16">
+        <v>2.76E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>-11.75</v>
+      </c>
+      <c r="B17">
+        <v>-0.82310000000000005</v>
+      </c>
+      <c r="C17">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>-11.5</v>
+      </c>
+      <c r="B18">
+        <v>-0.79510000000000003</v>
+      </c>
+      <c r="C18">
+        <v>2.4899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>-11.25</v>
+      </c>
+      <c r="B19">
+        <v>-0.77390000000000003</v>
+      </c>
+      <c r="C19">
+        <v>2.3900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>-11</v>
+      </c>
+      <c r="B20">
+        <v>-0.75009999999999999</v>
+      </c>
+      <c r="C20">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>-10.75</v>
+      </c>
+      <c r="B21">
+        <v>-0.72089999999999999</v>
+      </c>
+      <c r="C21">
+        <v>2.2100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>-10.5</v>
+      </c>
+      <c r="B22">
+        <v>-0.69120000000000004</v>
+      </c>
+      <c r="C22">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>-10.25</v>
+      </c>
+      <c r="B23">
+        <v>-0.67049999999999998</v>
+      </c>
+      <c r="C23">
+        <v>2.01E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>-10</v>
+      </c>
+      <c r="B24">
+        <v>-0.64429999999999998</v>
+      </c>
+      <c r="C24">
+        <v>1.9400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>-9.75</v>
+      </c>
+      <c r="B25">
+        <v>-0.61250000000000004</v>
+      </c>
+      <c r="C25">
+        <v>1.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>-9.5</v>
+      </c>
+      <c r="B26">
+        <v>-0.58199999999999996</v>
+      </c>
+      <c r="C26">
+        <v>1.77E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>-9.25</v>
+      </c>
+      <c r="B27">
+        <v>-0.54749999999999999</v>
+      </c>
+      <c r="C27">
+        <v>1.6899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>-9</v>
+      </c>
+      <c r="B28">
+        <v>-0.52729999999999999</v>
+      </c>
+      <c r="C28">
+        <v>1.6299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>-8.75</v>
+      </c>
+      <c r="B29">
+        <v>-0.49830000000000002</v>
+      </c>
+      <c r="C29">
+        <v>1.5599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>-8.5</v>
+      </c>
+      <c r="B30">
+        <v>-0.46460000000000001</v>
+      </c>
+      <c r="C30">
+        <v>1.49E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>-8.25</v>
+      </c>
+      <c r="B31">
+        <v>-0.42659999999999998</v>
+      </c>
+      <c r="C31">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>-8</v>
+      </c>
+      <c r="B32">
+        <v>-0.38990000000000002</v>
+      </c>
+      <c r="C32">
+        <v>1.38E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>-7.75</v>
+      </c>
+      <c r="B33">
+        <v>-0.37040000000000001</v>
+      </c>
+      <c r="C33">
+        <v>1.3299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>-7.5</v>
+      </c>
+      <c r="B34">
+        <v>-0.33750000000000002</v>
+      </c>
+      <c r="C34">
+        <v>1.29E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>-7.25</v>
+      </c>
+      <c r="B35">
+        <v>-0.30130000000000001</v>
+      </c>
+      <c r="C35">
+        <v>1.24E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>-7</v>
+      </c>
+      <c r="B36">
+        <v>-0.27650000000000002</v>
+      </c>
+      <c r="C36">
+        <v>1.21E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>-6.75</v>
+      </c>
+      <c r="B37">
+        <v>-0.2465</v>
+      </c>
+      <c r="C37">
+        <v>1.18E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>-6.5</v>
+      </c>
+      <c r="B38">
+        <v>-0.2099</v>
+      </c>
+      <c r="C38">
+        <v>1.15E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>-6.25</v>
+      </c>
+      <c r="B39">
+        <v>-0.18890000000000001</v>
+      </c>
+      <c r="C39">
+        <v>1.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>-6</v>
+      </c>
+      <c r="B40">
+        <v>-0.15690000000000001</v>
+      </c>
+      <c r="C40">
+        <v>1.11E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>-5.75</v>
+      </c>
+      <c r="B41">
+        <v>-0.13139999999999999</v>
+      </c>
+      <c r="C41">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>-5.5</v>
+      </c>
+      <c r="B42">
+        <v>-0.10349999999999999</v>
+      </c>
+      <c r="C42">
+        <v>1.0699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>-5.25</v>
+      </c>
+      <c r="B43">
+        <v>-7.6799999999999993E-2</v>
+      </c>
+      <c r="C43">
+        <v>1.06E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>-5</v>
+      </c>
+      <c r="B44">
+        <v>-5.0900000000000001E-2</v>
+      </c>
+      <c r="C44">
+        <v>1.04E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>-4.75</v>
+      </c>
+      <c r="B45">
+        <v>-2.46E-2</v>
+      </c>
+      <c r="C45">
+        <v>1.03E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>-4.5</v>
+      </c>
+      <c r="B46">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="C46">
+        <v>1.01E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>-4</v>
+      </c>
+      <c r="B47">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="C47">
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>-3.75</v>
+      </c>
+      <c r="B48">
+        <v>7.5300000000000006E-2</v>
+      </c>
+      <c r="C48">
+        <v>9.7000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>-3.5</v>
+      </c>
+      <c r="B49">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="C49">
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>-3.25</v>
+      </c>
+      <c r="B50">
+        <v>0.124</v>
+      </c>
+      <c r="C50">
+        <v>9.4999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>-3</v>
+      </c>
+      <c r="B51">
+        <v>0.14910000000000001</v>
+      </c>
+      <c r="C51">
+        <v>9.4000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>-2.75</v>
+      </c>
+      <c r="B52">
+        <v>0.17249999999999999</v>
+      </c>
+      <c r="C52">
+        <v>9.2999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>-2.5</v>
+      </c>
+      <c r="B53">
+        <v>0.19620000000000001</v>
+      </c>
+      <c r="C53">
+        <v>9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>-2.25</v>
+      </c>
+      <c r="B54">
+        <v>0.22009999999999999</v>
+      </c>
+      <c r="C54">
+        <v>9.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>-2</v>
+      </c>
+      <c r="B55">
+        <v>0.2427</v>
+      </c>
+      <c r="C55">
+        <v>9.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>-1.75</v>
+      </c>
+      <c r="B56">
+        <v>0.26629999999999998</v>
+      </c>
+      <c r="C56">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>-1.5</v>
+      </c>
+      <c r="B57">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="C57">
+        <v>8.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>-1.25</v>
+      </c>
+      <c r="B58">
+        <v>0.31169999999999998</v>
+      </c>
+      <c r="C58">
+        <v>8.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>-1</v>
+      </c>
+      <c r="B59">
+        <v>0.3342</v>
+      </c>
+      <c r="C59">
+        <v>8.8000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>-0.75</v>
+      </c>
+      <c r="B60">
+        <v>0.35549999999999998</v>
+      </c>
+      <c r="C60">
+        <v>8.6999999999999994E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>-0.5</v>
+      </c>
+      <c r="B61">
+        <v>0.37630000000000002</v>
+      </c>
+      <c r="C61">
+        <v>8.6E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>-0.25</v>
+      </c>
+      <c r="B62">
+        <v>0.39529999999999998</v>
+      </c>
+      <c r="C62">
+        <v>8.3999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>0.41270000000000001</v>
+      </c>
+      <c r="C63">
+        <v>8.2000000000000007E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>0.25</v>
+      </c>
+      <c r="B64">
+        <v>0.42970000000000003</v>
+      </c>
+      <c r="C64">
+        <v>8.0999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>0.5</v>
+      </c>
+      <c r="B65">
+        <v>0.44679999999999997</v>
+      </c>
+      <c r="C65">
+        <v>7.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>0.75</v>
+      </c>
+      <c r="B66">
+        <v>0.46689999999999998</v>
+      </c>
+      <c r="C66">
+        <v>7.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>0.53759999999999997</v>
+      </c>
+      <c r="C67">
+        <v>7.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>1.25</v>
+      </c>
+      <c r="B68">
+        <v>0.61550000000000005</v>
+      </c>
+      <c r="C68">
+        <v>8.0999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1.5</v>
+      </c>
+      <c r="B69">
+        <v>0.65680000000000005</v>
+      </c>
+      <c r="C69">
+        <v>8.3999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1.75</v>
+      </c>
+      <c r="B70">
+        <v>0.69359999999999999</v>
+      </c>
+      <c r="C70">
+        <v>8.6E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>0.73429999999999995</v>
+      </c>
+      <c r="C71">
+        <v>8.8000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2.25</v>
+      </c>
+      <c r="B72">
+        <v>0.77690000000000003</v>
+      </c>
+      <c r="C72">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2.5</v>
+      </c>
+      <c r="B73">
+        <v>0.82469999999999999</v>
+      </c>
+      <c r="C73">
+        <v>9.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2.75</v>
+      </c>
+      <c r="B74">
+        <v>0.84870000000000001</v>
+      </c>
+      <c r="C74">
+        <v>9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75">
+        <v>0.86629999999999996</v>
+      </c>
+      <c r="C75">
+        <v>9.2999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>3.25</v>
+      </c>
+      <c r="B76">
+        <v>0.88380000000000003</v>
+      </c>
+      <c r="C76">
+        <v>9.4000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>3.5</v>
+      </c>
+      <c r="B77">
+        <v>0.90129999999999999</v>
+      </c>
+      <c r="C77">
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>3.75</v>
+      </c>
+      <c r="B78">
+        <v>0.91820000000000002</v>
+      </c>
+      <c r="C78">
+        <v>9.7000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>4</v>
+      </c>
+      <c r="B79">
+        <v>0.93530000000000002</v>
+      </c>
+      <c r="C79">
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>4.25</v>
+      </c>
+      <c r="B80">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="C80">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>4.5</v>
+      </c>
+      <c r="B81">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="C81">
+        <v>1.01E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>4.75</v>
+      </c>
+      <c r="B82">
+        <v>0.98829999999999996</v>
+      </c>
+      <c r="C82">
+        <v>1.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>5</v>
+      </c>
+      <c r="B83">
+        <v>1.0048999999999999</v>
+      </c>
+      <c r="C83">
+        <v>1.04E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>5.25</v>
+      </c>
+      <c r="B84">
+        <v>1.0222</v>
+      </c>
+      <c r="C84">
+        <v>1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>5.5</v>
+      </c>
+      <c r="B85">
+        <v>1.0363</v>
+      </c>
+      <c r="C85">
+        <v>1.0699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>5.75</v>
+      </c>
+      <c r="B86">
+        <v>1.0525</v>
+      </c>
+      <c r="C86">
+        <v>1.09E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>6</v>
+      </c>
+      <c r="B87">
+        <v>1.0667</v>
+      </c>
+      <c r="C87">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>6.25</v>
+      </c>
+      <c r="B88">
+        <v>1.0834999999999999</v>
+      </c>
+      <c r="C88">
+        <v>1.12E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>6.5</v>
+      </c>
+      <c r="B89">
+        <v>1.099</v>
+      </c>
+      <c r="C89">
+        <v>1.14E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>6.75</v>
+      </c>
+      <c r="B90">
+        <v>1.1161000000000001</v>
+      </c>
+      <c r="C90">
+        <v>1.1599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>7</v>
+      </c>
+      <c r="B91">
+        <v>1.1317999999999999</v>
+      </c>
+      <c r="C91">
+        <v>1.18E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>7.25</v>
+      </c>
+      <c r="B92">
+        <v>1.1489</v>
+      </c>
+      <c r="C92">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>7.5</v>
+      </c>
+      <c r="B93">
+        <v>1.1639999999999999</v>
+      </c>
+      <c r="C93">
+        <v>1.23E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>7.75</v>
+      </c>
+      <c r="B94">
+        <v>1.1818</v>
+      </c>
+      <c r="C94">
+        <v>1.26E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>8</v>
+      </c>
+      <c r="B95">
+        <v>1.1969000000000001</v>
+      </c>
+      <c r="C95">
+        <v>1.29E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>8.25</v>
+      </c>
+      <c r="B96">
+        <v>1.2128000000000001</v>
+      </c>
+      <c r="C96">
+        <v>1.32E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>8.5</v>
+      </c>
+      <c r="B97">
+        <v>1.2287999999999999</v>
+      </c>
+      <c r="C97">
+        <v>1.3599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>8.75</v>
+      </c>
+      <c r="B98">
+        <v>1.2431000000000001</v>
+      </c>
+      <c r="C98">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>9</v>
+      </c>
+      <c r="B99">
+        <v>1.2562</v>
+      </c>
+      <c r="C99">
+        <v>1.44E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>9.25</v>
+      </c>
+      <c r="B100">
+        <v>1.2687999999999999</v>
+      </c>
+      <c r="C100">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>9.5</v>
+      </c>
+      <c r="B101">
+        <v>1.2807999999999999</v>
+      </c>
+      <c r="C101">
+        <v>1.5599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>9.75</v>
+      </c>
+      <c r="B102">
+        <v>1.2927</v>
+      </c>
+      <c r="C102">
+        <v>1.6199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>10</v>
+      </c>
+      <c r="B103">
+        <v>1.3048999999999999</v>
+      </c>
+      <c r="C103">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>10.25</v>
+      </c>
+      <c r="B104">
+        <v>1.3167</v>
+      </c>
+      <c r="C104">
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>10.5</v>
+      </c>
+      <c r="B105">
+        <v>1.3281000000000001</v>
+      </c>
+      <c r="C105">
+        <v>1.8200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>10.75</v>
+      </c>
+      <c r="B106">
+        <v>1.3381000000000001</v>
+      </c>
+      <c r="C106">
+        <v>1.9099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>11.25</v>
+      </c>
+      <c r="B107">
+        <v>1.3593</v>
+      </c>
+      <c r="C107">
+        <v>2.0799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>11.5</v>
+      </c>
+      <c r="B108">
+        <v>1.3691</v>
+      </c>
+      <c r="C108">
+        <v>2.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>11.75</v>
+      </c>
+      <c r="B109">
+        <v>1.3789</v>
+      </c>
+      <c r="C109">
+        <v>2.2700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>12</v>
+      </c>
+      <c r="B110">
+        <v>1.3888</v>
+      </c>
+      <c r="C110">
+        <v>2.3699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>12.25</v>
+      </c>
+      <c r="B111">
+        <v>1.3969</v>
+      </c>
+      <c r="C111">
+        <v>2.4799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>12.5</v>
+      </c>
+      <c r="B112">
+        <v>1.4066000000000001</v>
+      </c>
+      <c r="C112">
+        <v>2.5899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>12.75</v>
+      </c>
+      <c r="B113">
+        <v>1.4156</v>
+      </c>
+      <c r="C113">
+        <v>2.7099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>13</v>
+      </c>
+      <c r="B114">
+        <v>1.4218</v>
+      </c>
+      <c r="C114">
+        <v>2.8500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>13.25</v>
+      </c>
+      <c r="B115">
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="C115">
+        <v>2.9600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>13.5</v>
+      </c>
+      <c r="B116">
+        <v>1.4370000000000001</v>
+      </c>
+      <c r="C116">
+        <v>3.1199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>13.75</v>
+      </c>
+      <c r="B117">
+        <v>1.4457</v>
+      </c>
+      <c r="C117">
+        <v>3.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>14</v>
+      </c>
+      <c r="B118">
+        <v>1.4517</v>
+      </c>
+      <c r="C118">
+        <v>3.4099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>14.25</v>
+      </c>
+      <c r="B119">
+        <v>1.4561999999999999</v>
+      </c>
+      <c r="C119">
+        <v>3.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>14.5</v>
+      </c>
+      <c r="B120">
+        <v>1.4622999999999999</v>
+      </c>
+      <c r="C120">
+        <v>3.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>14.75</v>
+      </c>
+      <c r="B121">
+        <v>1.4645999999999999</v>
+      </c>
+      <c r="C121">
+        <v>3.9699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>15</v>
+      </c>
+      <c r="B122">
+        <v>1.4688000000000001</v>
+      </c>
+      <c r="C122">
+        <v>4.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>15.25</v>
+      </c>
+      <c r="B123">
+        <v>1.4697</v>
+      </c>
+      <c r="C123">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>15.5</v>
+      </c>
+      <c r="B124">
+        <v>1.4688000000000001</v>
+      </c>
+      <c r="C124">
+        <v>4.6600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>15.75</v>
+      </c>
+      <c r="B125">
+        <v>1.4684999999999999</v>
+      </c>
+      <c r="C125">
+        <v>4.9200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>16</v>
+      </c>
+      <c r="B126">
+        <v>1.4636</v>
+      </c>
+      <c r="C126">
+        <v>5.2299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>16.25</v>
+      </c>
+      <c r="B127">
+        <v>1.4617</v>
+      </c>
+      <c r="C127">
+        <v>5.5199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>16.5</v>
+      </c>
+      <c r="B128">
+        <v>1.4549000000000001</v>
+      </c>
+      <c r="C128">
+        <v>5.8700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>16.75</v>
+      </c>
+      <c r="B129">
+        <v>1.4537</v>
+      </c>
+      <c r="C129">
+        <v>6.1699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>17</v>
+      </c>
+      <c r="B130">
+        <v>1.4474</v>
+      </c>
+      <c r="C130">
+        <v>6.5299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>17.25</v>
+      </c>
+      <c r="B131">
+        <v>1.4399</v>
+      </c>
+      <c r="C131">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>17.5</v>
+      </c>
+      <c r="B132">
+        <v>1.4371</v>
+      </c>
+      <c r="C132">
+        <v>7.2400000000000006E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>17.75</v>
+      </c>
+      <c r="B133">
+        <v>1.4315</v>
+      </c>
+      <c r="C133">
+        <v>7.6100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>18</v>
+      </c>
+      <c r="B134">
+        <v>1.4234</v>
+      </c>
+      <c r="C134">
+        <v>8.0100000000000005E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>18.25</v>
+      </c>
+      <c r="B135">
+        <v>1.4133</v>
+      </c>
+      <c r="C135">
+        <v>8.4500000000000006E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>18.5</v>
+      </c>
+      <c r="B136">
+        <v>1.4111</v>
+      </c>
+      <c r="C136">
+        <v>8.7900000000000006E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>18.75</v>
+      </c>
+      <c r="B137">
+        <v>1.4072</v>
+      </c>
+      <c r="C137">
+        <v>9.1499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>19</v>
+      </c>
+      <c r="B138">
+        <v>1.4011</v>
+      </c>
+      <c r="C138">
+        <v>9.5500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>19.25</v>
+      </c>
+      <c r="B139">
+        <v>1.3935</v>
+      </c>
+      <c r="C139">
+        <v>9.9699999999999997E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/195/digitizedData.xlsx
+++ b/195/digitizedData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\derrick\Desktop\repos\2021 Winter\195\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A64E0B-8108-4E62-A521-8DE7D1DA70B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7A1A16-C2B9-4D81-AEAA-F1A71F1F8DA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16572" yWindow="1680" windowWidth="15792" windowHeight="11640" activeTab="3" xr2:uid="{BEBEEE7F-4B70-497A-8360-C12D0F9BB666}"/>
+    <workbookView xWindow="16572" yWindow="1680" windowWidth="15792" windowHeight="11640" firstSheet="1" activeTab="3" xr2:uid="{BEBEEE7F-4B70-497A-8360-C12D0F9BB666}"/>
   </bookViews>
   <sheets>
     <sheet name="NACA4415 alpha vs Cl" sheetId="1" r:id="rId1"/>
@@ -6894,8 +6894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3339141-64CF-4192-8596-1B30C08BF21E}">
   <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="C1" activeCellId="1" sqref="B1:B1048576 C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
